--- a/target/test-classes/com/rediff/qa/testData/RediffTestData.xlsx
+++ b/target/test-classes/com/rediff/qa/testData/RediffTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafia Sultana\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0617DBF0-D016-4D00-8E45-1D83C3721DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF67275-7EF0-4F08-BB68-44635A7E56FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>username</t>
   </si>
@@ -36,25 +36,31 @@
     <t>seleniumpanda@rediffmail.com</t>
   </si>
   <si>
-    <t>Mohamedboudgui@rediffmail.com</t>
-  </si>
-  <si>
     <t>seleniumpanda1@rediffmail.com</t>
   </si>
   <si>
-    <t>seleniumpanda3@rediffmail.com</t>
-  </si>
-  <si>
     <t>Selenium@123</t>
   </si>
   <si>
-    <t>Medbdgo7o7@</t>
-  </si>
-  <si>
     <t>Donkey@123</t>
   </si>
   <si>
-    <t>monday1234</t>
+    <t>Medbdg0707@</t>
+  </si>
+  <si>
+    <t>chowdhurygs@rediffmail.com</t>
+  </si>
+  <si>
+    <t>Shajlee1@</t>
+  </si>
+  <si>
+    <t>homa_rahimi@rediffmail.com</t>
+  </si>
+  <si>
+    <t>Winter2021?</t>
+  </si>
+  <si>
+    <t>Mohamedboudguig@rediffmail.com</t>
   </si>
 </sst>
 </file>
@@ -70,10 +76,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF2A00FF"/>
-      <name val="Courier New"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -114,17 +122,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -403,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -428,35 +440,54 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{A43D194B-8694-4605-BB50-1A44A6CEB53A}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{04E8748A-AB9E-4B23-B2E1-DF9997ACDC64}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{25527F05-1241-40D1-8188-9EA17F550C97}"/>
+    <hyperlink ref="A2" r:id="rId4" xr:uid="{0265171B-A1AE-4942-B262-D0D0C42AFF09}"/>
+    <hyperlink ref="A3" r:id="rId5" xr:uid="{41A6F042-8721-45C6-84CA-E401F8853CE9}"/>
+    <hyperlink ref="A4" r:id="rId6" xr:uid="{1673EB60-4093-4210-BD46-F9924547ADDB}"/>
+    <hyperlink ref="B2" r:id="rId7" xr:uid="{4206F3B3-2018-4DCC-BD21-C9CDFE02B1D1}"/>
+    <hyperlink ref="B4" r:id="rId8" xr:uid="{73DE202B-B96E-422B-861F-9C22CCB3EB0D}"/>
+    <hyperlink ref="A6" r:id="rId9" xr:uid="{1A707EAB-BF78-4719-8692-45DF9EF4FA51}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>